--- a/hourly_averages_with_date.xlsx
+++ b/hourly_averages_with_date.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahbap\OneDrive\Documents\GitHub\poultryshed_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\poultryshed_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10523D63-C244-485D-ABDF-BEB7A8D338B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333BE7A7-122E-446A-ABC1-FCD4E8A82257}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +89,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,11 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,6 +154,2714 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>23.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFFB-4D83-91FC-A94854F4535C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="259355232"/>
+        <c:axId val="2094927504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="259355232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094927504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2094927504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="259355232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>25.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.94</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4573-4C96-BB1E-E123FF9034E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="180839872"/>
+        <c:axId val="182152560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="180839872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182152560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="182152560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="180839872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$50:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABD0-43C8-A608-FC995BDF69D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="182863568"/>
+        <c:axId val="1968656752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="182863568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1968656752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1968656752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182863568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A9DB3F-11B3-4F41-A71D-F70EB03CC699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385B1BF8-319A-470E-A021-17FE3113B334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245357DC-0012-46DA-A572-E0732F3A5AAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,20 +3149,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:Q265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="C12" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +3182,17 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O1">
+        <v>16</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -474,7 +3200,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>23.56</v>
@@ -485,8 +3211,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -505,8 +3240,17 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -525,8 +3269,17 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -545,8 +3298,17 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>22.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -565,8 +3327,17 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>21</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>22.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -585,8 +3356,17 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>22</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>22.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -605,8 +3385,17 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>23</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -625,8 +3414,17 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>22.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -645,8 +3443,17 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -665,8 +3472,17 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -685,8 +3501,17 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -705,8 +3530,17 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>21.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -725,8 +3559,17 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>21.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -745,8 +3588,17 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>21.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -765,8 +3617,17 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>21.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -785,8 +3646,17 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>8</v>
+      </c>
+      <c r="P17">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -805,8 +3675,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -825,8 +3704,17 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -845,8 +3733,17 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>11</v>
+      </c>
+      <c r="P20">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>21.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -865,8 +3762,17 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O21">
+        <v>12</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -885,8 +3791,17 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O22">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -905,8 +3820,17 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <v>14</v>
+      </c>
+      <c r="P23">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>23.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -925,8 +3849,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -946,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -954,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>25.62</v>
@@ -966,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -986,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1006,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1026,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1046,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1066,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1086,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1106,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1126,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1146,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1166,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1186,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1206,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1226,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1246,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1266,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1286,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1306,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1326,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1346,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1366,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1386,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1406,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1426,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1434,7 +4367,7 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <v>23.9</v>
@@ -1446,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1466,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1486,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1506,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1526,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1546,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1566,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1586,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1606,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1626,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1646,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1666,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1686,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1706,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1726,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1746,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1766,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1786,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1806,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1826,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1846,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1866,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -1886,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -1906,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -1914,7 +4847,7 @@
         <v>9</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D74">
         <v>25.65</v>
@@ -1926,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -1946,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -1966,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -1986,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -2006,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2026,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2046,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2066,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2086,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2106,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2126,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2146,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2166,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2186,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2206,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2226,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2246,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2266,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2286,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2306,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2326,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2346,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2366,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2386,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5</v>
       </c>
@@ -2394,7 +5327,7 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D98">
         <v>23.23</v>
@@ -2406,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5</v>
       </c>
@@ -2426,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5</v>
       </c>
@@ -2446,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5</v>
       </c>
@@ -2466,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -2486,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5</v>
       </c>
@@ -2506,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -2526,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2546,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2566,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2586,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2606,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2626,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2646,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2666,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2686,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2706,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2726,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2746,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2766,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2786,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2806,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2826,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2846,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2866,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6</v>
       </c>
@@ -2874,7 +5807,7 @@
         <v>11</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D122">
         <v>25.8</v>
@@ -2886,7 +5819,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6</v>
       </c>
@@ -2906,7 +5839,7 @@
         <v>6.46</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6</v>
       </c>
@@ -2926,7 +5859,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6</v>
       </c>
@@ -2946,7 +5879,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6</v>
       </c>
@@ -2966,7 +5899,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6</v>
       </c>
@@ -2986,7 +5919,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6</v>
       </c>
@@ -3006,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -3026,7 +5959,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6</v>
       </c>
@@ -3046,7 +5979,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3066,7 +5999,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3086,7 +6019,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3106,7 +6039,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3126,7 +6059,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3146,7 +6079,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3166,7 +6099,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3186,7 +6119,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3206,7 +6139,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3226,7 +6159,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3246,7 +6179,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3266,7 +6199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3286,7 +6219,7 @@
         <v>6.44</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3306,7 +6239,7 @@
         <v>10.37</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3326,7 +6259,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3346,7 +6279,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>7</v>
       </c>
@@ -3354,7 +6287,7 @@
         <v>12</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D146">
         <v>22.64</v>
@@ -3366,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7</v>
       </c>
@@ -3386,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7</v>
       </c>
@@ -3406,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7</v>
       </c>
@@ -3426,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>7</v>
       </c>
@@ -3446,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7</v>
       </c>
@@ -3466,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -3486,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -3506,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>7</v>
       </c>
@@ -3526,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7</v>
       </c>
@@ -3546,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7</v>
       </c>
@@ -3566,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -3586,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7</v>
       </c>
@@ -3606,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7</v>
       </c>
@@ -3626,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>7</v>
       </c>
@@ -3646,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>7</v>
       </c>
@@ -3666,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>7</v>
       </c>
@@ -3686,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7</v>
       </c>
@@ -3706,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>7</v>
       </c>
@@ -3726,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7</v>
       </c>
@@ -3746,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>7</v>
       </c>
@@ -3766,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -3786,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7</v>
       </c>
@@ -3806,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7</v>
       </c>
@@ -3826,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>8</v>
       </c>
@@ -3834,7 +6767,7 @@
         <v>13</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D170">
         <v>23.23</v>
@@ -3846,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8</v>
       </c>
@@ -3866,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8</v>
       </c>
@@ -3886,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8</v>
       </c>
@@ -3906,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>8</v>
       </c>
@@ -3926,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>8</v>
       </c>
@@ -3946,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>8</v>
       </c>
@@ -3966,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8</v>
       </c>
@@ -3986,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8</v>
       </c>
@@ -4006,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8</v>
       </c>
@@ -4026,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8</v>
       </c>
@@ -4046,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8</v>
       </c>
@@ -4066,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8</v>
       </c>
@@ -4086,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8</v>
       </c>
@@ -4106,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8</v>
       </c>
@@ -4126,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
@@ -4146,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8</v>
       </c>
@@ -4166,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8</v>
       </c>
@@ -4186,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8</v>
       </c>
@@ -4206,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4226,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8</v>
       </c>
@@ -4246,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4266,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>8</v>
       </c>
@@ -4286,7 +7219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8</v>
       </c>
@@ -4306,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9</v>
       </c>
@@ -4314,7 +7247,7 @@
         <v>14</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D194">
         <v>21.17</v>
@@ -4326,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9</v>
       </c>
@@ -4346,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9</v>
       </c>
@@ -4366,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>9</v>
       </c>
@@ -4386,7 +7319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>9</v>
       </c>
@@ -4406,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>9</v>
       </c>
@@ -4426,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>9</v>
       </c>
@@ -4446,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>9</v>
       </c>
@@ -4466,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>9</v>
       </c>
@@ -4486,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>9</v>
       </c>
@@ -4506,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>9</v>
       </c>
@@ -4526,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>9</v>
       </c>
@@ -4546,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9</v>
       </c>
@@ -4566,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>9</v>
       </c>
@@ -4586,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9</v>
       </c>
@@ -4606,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>9</v>
       </c>
@@ -4626,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>9</v>
       </c>
@@ -4646,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>9</v>
       </c>
@@ -4666,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>9</v>
       </c>
@@ -4686,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>9</v>
       </c>
@@ -4706,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>9</v>
       </c>
@@ -4726,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>9</v>
       </c>
@@ -4746,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>9</v>
       </c>
@@ -4766,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>9</v>
       </c>
@@ -4786,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>10</v>
       </c>
@@ -4794,7 +7727,7 @@
         <v>15</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D218">
         <v>23.23</v>
@@ -4806,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>10</v>
       </c>
@@ -4826,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>10</v>
       </c>
@@ -4846,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>10</v>
       </c>
@@ -4866,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>10</v>
       </c>
@@ -4886,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>10</v>
       </c>
@@ -4906,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>10</v>
       </c>
@@ -4926,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>10</v>
       </c>
@@ -4946,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>10</v>
       </c>
@@ -4966,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>10</v>
       </c>
@@ -4986,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>10</v>
       </c>
@@ -5006,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>10</v>
       </c>
@@ -5026,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>10</v>
       </c>
@@ -5046,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>10</v>
       </c>
@@ -5066,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>10</v>
       </c>
@@ -5086,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>10</v>
       </c>
@@ -5106,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>10</v>
       </c>
@@ -5126,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>10</v>
       </c>
@@ -5146,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>10</v>
       </c>
@@ -5166,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>10</v>
       </c>
@@ -5186,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>10</v>
       </c>
@@ -5206,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>10</v>
       </c>
@@ -5226,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>10</v>
       </c>
@@ -5246,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>10</v>
       </c>
@@ -5266,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>11</v>
       </c>
@@ -5274,7 +8207,7 @@
         <v>16</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D242">
         <v>21.17</v>
@@ -5286,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>11</v>
       </c>
@@ -5306,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>11</v>
       </c>
@@ -5326,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>11</v>
       </c>
@@ -5346,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>11</v>
       </c>
@@ -5366,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>11</v>
       </c>
@@ -5386,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>11</v>
       </c>
@@ -5406,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>11</v>
       </c>
@@ -5426,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>11</v>
       </c>
@@ -5446,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>11</v>
       </c>
@@ -5466,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>11</v>
       </c>
@@ -5486,7 +8419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>11</v>
       </c>
@@ -5506,7 +8439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>11</v>
       </c>
@@ -5526,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>11</v>
       </c>
@@ -5546,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>11</v>
       </c>
@@ -5566,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>11</v>
       </c>
@@ -5586,7 +8519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>11</v>
       </c>
@@ -5606,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>11</v>
       </c>
@@ -5626,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>11</v>
       </c>
@@ -5646,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>11</v>
       </c>
@@ -5666,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>11</v>
       </c>
@@ -5686,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>11</v>
       </c>
@@ -5706,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>11</v>
       </c>
@@ -5726,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>11</v>
       </c>
@@ -5748,5 +8681,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>